--- a/biology/Médecine/Voyage_pathologique/Voyage_pathologique.xlsx
+++ b/biology/Médecine/Voyage_pathologique/Voyage_pathologique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En psychiatrie, on appelle voyage pathologique un voyage qui a pour motivation des raisons psychopathologiques. 
 </t>
@@ -511,7 +523,9 @@
           <t>Définition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le voyage pathologique est le plus souvent causé par une motivation délirante. Le patient exprime généralement cette idée : il a cherché à fuir un complot imaginaire, ou vient pour une obscure mission à accomplir, ou tout simplement parce qu'il en a reçu l'injonction par des « voix » hallucinatoires.
 Il peut aussi être secondaire à un état confusionnel ou amnésique.
@@ -543,7 +557,9 @@
           <t>Circonstances</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le voyage pathologique s'exprime surtout :
 chez les patients présentant un trouble délirant : schizophrénie, paranoïa, manie, mélancolie, bouffée délirante aiguë ;
@@ -577,7 +593,9 @@
           <t>Diagnostic différentiel</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>C'est donc un concept très différent du syndrome du voyageur, ce dernier terme désignant la survenue de troubles psychopathologiques de manière réactionnelle à un voyage entrepris dans un but précis alors que le sujet était dans son état normal.
 De même, il faut en distinguer la fugue qui désigne l'action (généralement d'un enfant ou un adolescent) de partir ou fuir, sans prévenir, de son cadre familial ou de son lieu d'hébergement.
@@ -609,7 +627,9 @@
           <t>Mesures thérapeutiques</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Généralement, l'hospitalisation pour bilan est nécessaire et le rapatriement sanitaire psychiatrique s'impose.
 </t>
@@ -640,7 +660,9 @@
           <t>Dans la littérature</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Don Quichotte de Cervantes
 Le héros, rempli d'idées farfelues et folles tirées de ses lectures, part à travers l'Espagne comme chevalier errant.
